--- a/EDRs.xlsx
+++ b/EDRs.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,23 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vysec/Resilio/Tools/EDRs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0A18F50B-5051-1449-A8CD-B508ADFB6C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49528A1-E086-FB4D-9A80-67E84B89F00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="24020" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="520" windowWidth="40960" windowHeight="24020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="out" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="192">
-  <si>
-    <t>EDR</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t>KiUserApcDispatcher</t>
   </si>
@@ -602,7 +598,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1135,17 +1131,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1475,6021 +1461,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FY11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:FY11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:181" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DR1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DY1" t="s">
-        <v>128</v>
-      </c>
-      <c r="DZ1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EA1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EB1" t="s">
-        <v>131</v>
-      </c>
-      <c r="EC1" t="s">
-        <v>132</v>
-      </c>
-      <c r="ED1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EE1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EF1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EG1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EH1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EI1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EJ1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EK1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EL1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EM1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EN1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EO1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EP1" t="s">
-        <v>145</v>
-      </c>
-      <c r="EQ1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ER1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ES1" t="s">
-        <v>148</v>
-      </c>
-      <c r="ET1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EU1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EV1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EW1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EX1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EY1" t="s">
-        <v>154</v>
-      </c>
-      <c r="EZ1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FA1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FB1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FC1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FD1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FE1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FF1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FG1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FH1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FI1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FJ1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FK1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FL1" t="s">
-        <v>167</v>
-      </c>
-      <c r="FM1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FN1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FO1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FP1" t="s">
-        <v>171</v>
-      </c>
-      <c r="FQ1" t="s">
-        <v>172</v>
-      </c>
-      <c r="FR1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FS1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FT1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FU1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FV1" t="s">
-        <v>177</v>
-      </c>
-      <c r="FW1" t="s">
-        <v>178</v>
-      </c>
-      <c r="FX1" t="s">
-        <v>179</v>
-      </c>
-      <c r="FY1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:181" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U2" t="b">
-        <v>0</v>
-      </c>
-      <c r="V2" t="b">
-        <v>0</v>
-      </c>
-      <c r="W2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB2" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BF2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BI2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BM2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BO2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BP2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BQ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BR2" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BT2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BU2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BV2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BY2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ2" t="b">
-        <v>1</v>
-      </c>
-      <c r="CA2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CB2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CD2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CE2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CF2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CG2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CH2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CJ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CK2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CL2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CM2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CN2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CO2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CP2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CQ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CR2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CS2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CT2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CU2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CV2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CW2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CY2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CZ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DA2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DB2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DC2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DD2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DE2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DF2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DG2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DH2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DI2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DJ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DK2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DL2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DM2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DN2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DO2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DP2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DQ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DR2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DS2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DT2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DU2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DV2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DW2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DX2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DY2" t="b">
-        <v>0</v>
-      </c>
-      <c r="DZ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="EA2" t="b">
-        <v>0</v>
-      </c>
-      <c r="EB2" t="b">
-        <v>0</v>
-      </c>
-      <c r="EC2" t="b">
-        <v>0</v>
-      </c>
-      <c r="ED2" t="b">
-        <v>0</v>
-      </c>
-      <c r="EE2" t="b">
-        <v>0</v>
-      </c>
-      <c r="EF2" t="b">
-        <v>0</v>
-      </c>
-      <c r="EG2" t="b">
-        <v>0</v>
-      </c>
-      <c r="EH2" t="b">
-        <v>0</v>
-      </c>
-      <c r="EI2" t="b">
-        <v>0</v>
-      </c>
-      <c r="EJ2" t="b">
-        <v>1</v>
-      </c>
-      <c r="EK2" t="b">
-        <v>1</v>
-      </c>
-      <c r="EL2" t="b">
-        <v>0</v>
-      </c>
-      <c r="EM2" t="b">
-        <v>0</v>
-      </c>
-      <c r="EN2" t="b">
-        <v>0</v>
-      </c>
-      <c r="EO2" t="b">
-        <v>0</v>
-      </c>
-      <c r="EP2" t="b">
-        <v>0</v>
-      </c>
-      <c r="EQ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="ER2" t="b">
-        <v>0</v>
-      </c>
-      <c r="ES2" t="b">
-        <v>0</v>
-      </c>
-      <c r="ET2" t="b">
-        <v>0</v>
-      </c>
-      <c r="EU2" t="b">
-        <v>0</v>
-      </c>
-      <c r="EV2" t="b">
-        <v>0</v>
-      </c>
-      <c r="EW2" t="b">
-        <v>0</v>
-      </c>
-      <c r="EX2" t="b">
-        <v>0</v>
-      </c>
-      <c r="EY2" t="b">
-        <v>0</v>
-      </c>
-      <c r="EZ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="FA2" t="b">
-        <v>0</v>
-      </c>
-      <c r="FB2" t="b">
-        <v>0</v>
-      </c>
-      <c r="FC2" t="b">
-        <v>1</v>
-      </c>
-      <c r="FD2" t="b">
-        <v>1</v>
-      </c>
-      <c r="FE2" t="b">
-        <v>0</v>
-      </c>
-      <c r="FF2" t="b">
-        <v>0</v>
-      </c>
-      <c r="FG2" t="b">
-        <v>0</v>
-      </c>
-      <c r="FH2" t="b">
-        <v>0</v>
-      </c>
-      <c r="FI2" t="b">
-        <v>0</v>
-      </c>
-      <c r="FJ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="FK2" t="b">
-        <v>1</v>
-      </c>
-      <c r="FL2" t="b">
-        <v>0</v>
-      </c>
-      <c r="FM2" t="b">
-        <v>0</v>
-      </c>
-      <c r="FN2" t="b">
-        <v>0</v>
-      </c>
-      <c r="FO2" t="b">
-        <v>0</v>
-      </c>
-      <c r="FP2" t="b">
-        <v>0</v>
-      </c>
-      <c r="FQ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR2" t="b">
-        <v>0</v>
-      </c>
-      <c r="FS2" t="b">
-        <v>0</v>
-      </c>
-      <c r="FT2" t="b">
-        <v>1</v>
-      </c>
-      <c r="FU2" t="b">
-        <v>0</v>
-      </c>
-      <c r="FV2" t="b">
-        <v>0</v>
-      </c>
-      <c r="FW2" t="b">
-        <v>0</v>
-      </c>
-      <c r="FX2" t="b">
-        <v>0</v>
-      </c>
-      <c r="FY2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:181" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V3" t="b">
-        <v>0</v>
-      </c>
-      <c r="W3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ3" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE3" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG3" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BI3" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BM3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BO3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BP3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BQ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BR3" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BT3" t="b">
-        <v>1</v>
-      </c>
-      <c r="BU3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BV3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BY3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ3" t="b">
-        <v>1</v>
-      </c>
-      <c r="CA3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CB3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CD3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CE3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CF3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CG3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CH3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CK3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CL3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CM3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CN3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CO3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CP3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CQ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CR3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CS3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CT3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CU3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CV3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CW3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CY3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CZ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="DA3" t="b">
-        <v>0</v>
-      </c>
-      <c r="DB3" t="b">
-        <v>0</v>
-      </c>
-      <c r="DC3" t="b">
-        <v>0</v>
-      </c>
-      <c r="DD3" t="b">
-        <v>0</v>
-      </c>
-      <c r="DE3" t="b">
-        <v>0</v>
-      </c>
-      <c r="DF3" t="b">
-        <v>0</v>
-      </c>
-      <c r="DG3" t="b">
-        <v>0</v>
-      </c>
-      <c r="DH3" t="b">
-        <v>0</v>
-      </c>
-      <c r="DI3" t="b">
-        <v>0</v>
-      </c>
-      <c r="DJ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="DK3" t="b">
-        <v>0</v>
-      </c>
-      <c r="DL3" t="b">
-        <v>0</v>
-      </c>
-      <c r="DM3" t="b">
-        <v>0</v>
-      </c>
-      <c r="DN3" t="b">
-        <v>0</v>
-      </c>
-      <c r="DO3" t="b">
-        <v>0</v>
-      </c>
-      <c r="DP3" t="b">
-        <v>0</v>
-      </c>
-      <c r="DQ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="DR3" t="b">
-        <v>0</v>
-      </c>
-      <c r="DS3" t="b">
-        <v>0</v>
-      </c>
-      <c r="DT3" t="b">
-        <v>0</v>
-      </c>
-      <c r="DU3" t="b">
-        <v>0</v>
-      </c>
-      <c r="DV3" t="b">
-        <v>0</v>
-      </c>
-      <c r="DW3" t="b">
-        <v>0</v>
-      </c>
-      <c r="DX3" t="b">
-        <v>1</v>
-      </c>
-      <c r="DY3" t="b">
-        <v>0</v>
-      </c>
-      <c r="DZ3" t="b">
-        <v>1</v>
-      </c>
-      <c r="EA3" t="b">
-        <v>0</v>
-      </c>
-      <c r="EB3" t="b">
-        <v>0</v>
-      </c>
-      <c r="EC3" t="b">
-        <v>1</v>
-      </c>
-      <c r="ED3" t="b">
-        <v>0</v>
-      </c>
-      <c r="EE3" t="b">
-        <v>0</v>
-      </c>
-      <c r="EF3" t="b">
-        <v>0</v>
-      </c>
-      <c r="EG3" t="b">
-        <v>0</v>
-      </c>
-      <c r="EH3" t="b">
-        <v>0</v>
-      </c>
-      <c r="EI3" t="b">
-        <v>0</v>
-      </c>
-      <c r="EJ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="EK3" t="b">
-        <v>0</v>
-      </c>
-      <c r="EL3" t="b">
-        <v>0</v>
-      </c>
-      <c r="EM3" t="b">
-        <v>1</v>
-      </c>
-      <c r="EN3" t="b">
-        <v>1</v>
-      </c>
-      <c r="EO3" t="b">
-        <v>0</v>
-      </c>
-      <c r="EP3" t="b">
-        <v>0</v>
-      </c>
-      <c r="EQ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="ER3" t="b">
-        <v>0</v>
-      </c>
-      <c r="ES3" t="b">
-        <v>0</v>
-      </c>
-      <c r="ET3" t="b">
-        <v>1</v>
-      </c>
-      <c r="EU3" t="b">
-        <v>0</v>
-      </c>
-      <c r="EV3" t="b">
-        <v>1</v>
-      </c>
-      <c r="EW3" t="b">
-        <v>1</v>
-      </c>
-      <c r="EX3" t="b">
-        <v>1</v>
-      </c>
-      <c r="EY3" t="b">
-        <v>0</v>
-      </c>
-      <c r="EZ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="FA3" t="b">
-        <v>0</v>
-      </c>
-      <c r="FB3" t="b">
-        <v>0</v>
-      </c>
-      <c r="FC3" t="b">
-        <v>1</v>
-      </c>
-      <c r="FD3" t="b">
-        <v>1</v>
-      </c>
-      <c r="FE3" t="b">
-        <v>0</v>
-      </c>
-      <c r="FF3" t="b">
-        <v>0</v>
-      </c>
-      <c r="FG3" t="b">
-        <v>1</v>
-      </c>
-      <c r="FH3" t="b">
-        <v>1</v>
-      </c>
-      <c r="FI3" t="b">
-        <v>1</v>
-      </c>
-      <c r="FJ3" t="b">
-        <v>1</v>
-      </c>
-      <c r="FK3" t="b">
-        <v>1</v>
-      </c>
-      <c r="FL3" t="b">
-        <v>0</v>
-      </c>
-      <c r="FM3" t="b">
-        <v>1</v>
-      </c>
-      <c r="FN3" t="b">
-        <v>1</v>
-      </c>
-      <c r="FO3" t="b">
-        <v>0</v>
-      </c>
-      <c r="FP3" t="b">
-        <v>1</v>
-      </c>
-      <c r="FQ3" t="b">
-        <v>1</v>
-      </c>
-      <c r="FR3" t="b">
-        <v>0</v>
-      </c>
-      <c r="FS3" t="b">
-        <v>0</v>
-      </c>
-      <c r="FT3" t="b">
-        <v>1</v>
-      </c>
-      <c r="FU3" t="b">
-        <v>0</v>
-      </c>
-      <c r="FV3" t="b">
-        <v>1</v>
-      </c>
-      <c r="FW3" t="b">
-        <v>0</v>
-      </c>
-      <c r="FX3" t="b">
-        <v>0</v>
-      </c>
-      <c r="FY3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:181" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4" t="b">
-        <v>0</v>
-      </c>
-      <c r="U4" t="b">
-        <v>1</v>
-      </c>
-      <c r="V4" t="b">
-        <v>1</v>
-      </c>
-      <c r="W4" t="b">
-        <v>0</v>
-      </c>
-      <c r="X4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BI4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BM4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BN4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BO4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BP4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BQ4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BT4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BU4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BW4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BX4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BY4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CA4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CB4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CC4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CD4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CE4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CF4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CG4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CH4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CI4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CJ4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CK4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CL4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CM4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CN4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CO4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CP4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CQ4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CR4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CS4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CT4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CU4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CV4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CW4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CX4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CY4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CZ4" t="b">
-        <v>1</v>
-      </c>
-      <c r="DA4" t="b">
-        <v>1</v>
-      </c>
-      <c r="DB4" t="b">
-        <v>1</v>
-      </c>
-      <c r="DC4" t="b">
-        <v>1</v>
-      </c>
-      <c r="DD4" t="b">
-        <v>1</v>
-      </c>
-      <c r="DE4" t="b">
-        <v>1</v>
-      </c>
-      <c r="DF4" t="b">
-        <v>1</v>
-      </c>
-      <c r="DG4" t="b">
-        <v>1</v>
-      </c>
-      <c r="DH4" t="b">
-        <v>1</v>
-      </c>
-      <c r="DI4" t="b">
-        <v>1</v>
-      </c>
-      <c r="DJ4" t="b">
-        <v>1</v>
-      </c>
-      <c r="DK4" t="b">
-        <v>1</v>
-      </c>
-      <c r="DL4" t="b">
-        <v>1</v>
-      </c>
-      <c r="DM4" t="b">
-        <v>1</v>
-      </c>
-      <c r="DN4" t="b">
-        <v>1</v>
-      </c>
-      <c r="DO4" t="b">
-        <v>1</v>
-      </c>
-      <c r="DP4" t="b">
-        <v>1</v>
-      </c>
-      <c r="DQ4" t="b">
-        <v>1</v>
-      </c>
-      <c r="DR4" t="b">
-        <v>1</v>
-      </c>
-      <c r="DS4" t="b">
-        <v>1</v>
-      </c>
-      <c r="DT4" t="b">
-        <v>1</v>
-      </c>
-      <c r="DU4" t="b">
-        <v>1</v>
-      </c>
-      <c r="DV4" t="b">
-        <v>1</v>
-      </c>
-      <c r="DW4" t="b">
-        <v>1</v>
-      </c>
-      <c r="DX4" t="b">
-        <v>0</v>
-      </c>
-      <c r="DY4" t="b">
-        <v>0</v>
-      </c>
-      <c r="DZ4" t="b">
-        <v>0</v>
-      </c>
-      <c r="EA4" t="b">
-        <v>0</v>
-      </c>
-      <c r="EB4" t="b">
-        <v>0</v>
-      </c>
-      <c r="EC4" t="b">
-        <v>0</v>
-      </c>
-      <c r="ED4" t="b">
-        <v>0</v>
-      </c>
-      <c r="EE4" t="b">
-        <v>0</v>
-      </c>
-      <c r="EF4" t="b">
-        <v>0</v>
-      </c>
-      <c r="EG4" t="b">
-        <v>0</v>
-      </c>
-      <c r="EH4" t="b">
-        <v>0</v>
-      </c>
-      <c r="EI4" t="b">
-        <v>0</v>
-      </c>
-      <c r="EJ4" t="b">
-        <v>0</v>
-      </c>
-      <c r="EK4" t="b">
-        <v>0</v>
-      </c>
-      <c r="EL4" t="b">
-        <v>0</v>
-      </c>
-      <c r="EM4" t="b">
-        <v>0</v>
-      </c>
-      <c r="EN4" t="b">
-        <v>0</v>
-      </c>
-      <c r="EO4" t="b">
-        <v>0</v>
-      </c>
-      <c r="EP4" t="b">
-        <v>0</v>
-      </c>
-      <c r="EQ4" t="b">
-        <v>0</v>
-      </c>
-      <c r="ER4" t="b">
-        <v>0</v>
-      </c>
-      <c r="ES4" t="b">
-        <v>0</v>
-      </c>
-      <c r="ET4" t="b">
-        <v>0</v>
-      </c>
-      <c r="EU4" t="b">
-        <v>0</v>
-      </c>
-      <c r="EV4" t="b">
-        <v>0</v>
-      </c>
-      <c r="EW4" t="b">
-        <v>0</v>
-      </c>
-      <c r="EX4" t="b">
-        <v>0</v>
-      </c>
-      <c r="EY4" t="b">
-        <v>0</v>
-      </c>
-      <c r="EZ4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FA4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FB4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FC4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FE4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FF4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FG4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FH4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FI4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FJ4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FK4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FL4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FM4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FN4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FO4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FP4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FQ4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FS4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FT4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FU4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FV4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FW4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FX4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FY4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:181" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" t="b">
-        <v>0</v>
-      </c>
-      <c r="V5" t="b">
-        <v>0</v>
-      </c>
-      <c r="W5" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BI5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BM5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BO5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BP5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BQ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BR5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BT5" t="b">
-        <v>1</v>
-      </c>
-      <c r="BU5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BV5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BY5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ5" t="b">
-        <v>1</v>
-      </c>
-      <c r="CA5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CB5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CD5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CE5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CF5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CG5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CH5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CJ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CK5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CL5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CM5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CN5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CO5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CP5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CQ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CR5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CS5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CT5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CU5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CV5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CW5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CY5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CZ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DA5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DB5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DC5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DD5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DE5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DF5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DG5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DH5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DI5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DJ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DK5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DL5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DM5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DN5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DO5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DP5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DQ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DR5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DS5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DT5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DU5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DV5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DW5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DX5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DY5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DZ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="EA5" t="b">
-        <v>1</v>
-      </c>
-      <c r="EB5" t="b">
-        <v>0</v>
-      </c>
-      <c r="EC5" t="b">
-        <v>1</v>
-      </c>
-      <c r="ED5" t="b">
-        <v>0</v>
-      </c>
-      <c r="EE5" t="b">
-        <v>1</v>
-      </c>
-      <c r="EF5" t="b">
-        <v>0</v>
-      </c>
-      <c r="EG5" t="b">
-        <v>0</v>
-      </c>
-      <c r="EH5" t="b">
-        <v>0</v>
-      </c>
-      <c r="EI5" t="b">
-        <v>0</v>
-      </c>
-      <c r="EJ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="EK5" t="b">
-        <v>0</v>
-      </c>
-      <c r="EL5" t="b">
-        <v>0</v>
-      </c>
-      <c r="EM5" t="b">
-        <v>0</v>
-      </c>
-      <c r="EN5" t="b">
-        <v>0</v>
-      </c>
-      <c r="EO5" t="b">
-        <v>0</v>
-      </c>
-      <c r="EP5" t="b">
-        <v>0</v>
-      </c>
-      <c r="EQ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="ER5" t="b">
-        <v>0</v>
-      </c>
-      <c r="ES5" t="b">
-        <v>0</v>
-      </c>
-      <c r="ET5" t="b">
-        <v>1</v>
-      </c>
-      <c r="EU5" t="b">
-        <v>0</v>
-      </c>
-      <c r="EV5" t="b">
-        <v>0</v>
-      </c>
-      <c r="EW5" t="b">
-        <v>0</v>
-      </c>
-      <c r="EX5" t="b">
-        <v>1</v>
-      </c>
-      <c r="EY5" t="b">
-        <v>0</v>
-      </c>
-      <c r="EZ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="FA5" t="b">
-        <v>0</v>
-      </c>
-      <c r="FB5" t="b">
-        <v>0</v>
-      </c>
-      <c r="FC5" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD5" t="b">
-        <v>1</v>
-      </c>
-      <c r="FE5" t="b">
-        <v>0</v>
-      </c>
-      <c r="FF5" t="b">
-        <v>0</v>
-      </c>
-      <c r="FG5" t="b">
-        <v>0</v>
-      </c>
-      <c r="FH5" t="b">
-        <v>0</v>
-      </c>
-      <c r="FI5" t="b">
-        <v>1</v>
-      </c>
-      <c r="FJ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="FK5" t="b">
-        <v>1</v>
-      </c>
-      <c r="FL5" t="b">
-        <v>0</v>
-      </c>
-      <c r="FM5" t="b">
-        <v>0</v>
-      </c>
-      <c r="FN5" t="b">
-        <v>1</v>
-      </c>
-      <c r="FO5" t="b">
-        <v>0</v>
-      </c>
-      <c r="FP5" t="b">
-        <v>0</v>
-      </c>
-      <c r="FQ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR5" t="b">
-        <v>0</v>
-      </c>
-      <c r="FS5" t="b">
-        <v>0</v>
-      </c>
-      <c r="FT5" t="b">
-        <v>0</v>
-      </c>
-      <c r="FU5" t="b">
-        <v>0</v>
-      </c>
-      <c r="FV5" t="b">
-        <v>1</v>
-      </c>
-      <c r="FW5" t="b">
-        <v>0</v>
-      </c>
-      <c r="FX5" t="b">
-        <v>0</v>
-      </c>
-      <c r="FY5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:181" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" t="b">
-        <v>1</v>
-      </c>
-      <c r="T6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" t="b">
-        <v>0</v>
-      </c>
-      <c r="V6" t="b">
-        <v>0</v>
-      </c>
-      <c r="W6" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BI6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BM6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BO6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BP6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BQ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BR6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BT6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BU6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BV6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BY6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ6" t="b">
-        <v>1</v>
-      </c>
-      <c r="CA6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CB6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CD6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CE6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CF6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CG6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CH6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CJ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CK6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CL6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CM6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CN6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CO6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CP6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CQ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CR6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CS6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CT6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CU6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CV6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CW6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CY6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CZ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DA6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DB6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DC6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DD6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DE6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DF6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DG6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DH6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DI6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DJ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DK6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DL6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DM6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DN6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DO6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DP6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DQ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DR6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DS6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DT6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DU6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DV6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DW6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DX6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DY6" t="b">
-        <v>1</v>
-      </c>
-      <c r="DZ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="EA6" t="b">
-        <v>0</v>
-      </c>
-      <c r="EB6" t="b">
-        <v>1</v>
-      </c>
-      <c r="EC6" t="b">
-        <v>0</v>
-      </c>
-      <c r="ED6" t="b">
-        <v>0</v>
-      </c>
-      <c r="EE6" t="b">
-        <v>0</v>
-      </c>
-      <c r="EF6" t="b">
-        <v>0</v>
-      </c>
-      <c r="EG6" t="b">
-        <v>0</v>
-      </c>
-      <c r="EH6" t="b">
-        <v>0</v>
-      </c>
-      <c r="EI6" t="b">
-        <v>0</v>
-      </c>
-      <c r="EJ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="EK6" t="b">
-        <v>0</v>
-      </c>
-      <c r="EL6" t="b">
-        <v>0</v>
-      </c>
-      <c r="EM6" t="b">
-        <v>1</v>
-      </c>
-      <c r="EN6" t="b">
-        <v>0</v>
-      </c>
-      <c r="EO6" t="b">
-        <v>0</v>
-      </c>
-      <c r="EP6" t="b">
-        <v>0</v>
-      </c>
-      <c r="EQ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="ER6" t="b">
-        <v>0</v>
-      </c>
-      <c r="ES6" t="b">
-        <v>0</v>
-      </c>
-      <c r="ET6" t="b">
-        <v>0</v>
-      </c>
-      <c r="EU6" t="b">
-        <v>1</v>
-      </c>
-      <c r="EV6" t="b">
-        <v>0</v>
-      </c>
-      <c r="EW6" t="b">
-        <v>0</v>
-      </c>
-      <c r="EX6" t="b">
-        <v>1</v>
-      </c>
-      <c r="EY6" t="b">
-        <v>0</v>
-      </c>
-      <c r="EZ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="FA6" t="b">
-        <v>0</v>
-      </c>
-      <c r="FB6" t="b">
-        <v>0</v>
-      </c>
-      <c r="FC6" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD6" t="b">
-        <v>0</v>
-      </c>
-      <c r="FE6" t="b">
-        <v>0</v>
-      </c>
-      <c r="FF6" t="b">
-        <v>0</v>
-      </c>
-      <c r="FG6" t="b">
-        <v>0</v>
-      </c>
-      <c r="FH6" t="b">
-        <v>0</v>
-      </c>
-      <c r="FI6" t="b">
-        <v>1</v>
-      </c>
-      <c r="FJ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="FK6" t="b">
-        <v>0</v>
-      </c>
-      <c r="FL6" t="b">
-        <v>0</v>
-      </c>
-      <c r="FM6" t="b">
-        <v>1</v>
-      </c>
-      <c r="FN6" t="b">
-        <v>1</v>
-      </c>
-      <c r="FO6" t="b">
-        <v>0</v>
-      </c>
-      <c r="FP6" t="b">
-        <v>0</v>
-      </c>
-      <c r="FQ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR6" t="b">
-        <v>0</v>
-      </c>
-      <c r="FS6" t="b">
-        <v>0</v>
-      </c>
-      <c r="FT6" t="b">
-        <v>0</v>
-      </c>
-      <c r="FU6" t="b">
-        <v>0</v>
-      </c>
-      <c r="FV6" t="b">
-        <v>1</v>
-      </c>
-      <c r="FW6" t="b">
-        <v>0</v>
-      </c>
-      <c r="FX6" t="b">
-        <v>0</v>
-      </c>
-      <c r="FY6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:181" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" t="b">
-        <v>0</v>
-      </c>
-      <c r="U7" t="b">
-        <v>0</v>
-      </c>
-      <c r="V7" t="b">
-        <v>0</v>
-      </c>
-      <c r="W7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ7" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB7" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD7" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE7" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG7" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BI7" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BM7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BO7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BP7" t="b">
-        <v>1</v>
-      </c>
-      <c r="BQ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BR7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BT7" t="b">
-        <v>1</v>
-      </c>
-      <c r="BU7" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BY7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ7" t="b">
-        <v>1</v>
-      </c>
-      <c r="CA7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CB7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CD7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CE7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CF7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CG7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CH7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CJ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CK7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CL7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CM7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CN7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CO7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CP7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CQ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CR7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CS7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CT7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CU7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CV7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CW7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CY7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CZ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DA7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DB7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DC7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DD7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DE7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DF7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DG7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DH7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DI7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DJ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DK7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DL7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DM7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DN7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DO7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DP7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DQ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DR7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DS7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DT7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DU7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DV7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DW7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DX7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DY7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DZ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="EA7" t="b">
-        <v>0</v>
-      </c>
-      <c r="EB7" t="b">
-        <v>0</v>
-      </c>
-      <c r="EC7" t="b">
-        <v>1</v>
-      </c>
-      <c r="ED7" t="b">
-        <v>1</v>
-      </c>
-      <c r="EE7" t="b">
-        <v>0</v>
-      </c>
-      <c r="EF7" t="b">
-        <v>0</v>
-      </c>
-      <c r="EG7" t="b">
-        <v>0</v>
-      </c>
-      <c r="EH7" t="b">
-        <v>0</v>
-      </c>
-      <c r="EI7" t="b">
-        <v>0</v>
-      </c>
-      <c r="EJ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="EK7" t="b">
-        <v>0</v>
-      </c>
-      <c r="EL7" t="b">
-        <v>0</v>
-      </c>
-      <c r="EM7" t="b">
-        <v>0</v>
-      </c>
-      <c r="EN7" t="b">
-        <v>0</v>
-      </c>
-      <c r="EO7" t="b">
-        <v>0</v>
-      </c>
-      <c r="EP7" t="b">
-        <v>0</v>
-      </c>
-      <c r="EQ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="ER7" t="b">
-        <v>1</v>
-      </c>
-      <c r="ES7" t="b">
-        <v>0</v>
-      </c>
-      <c r="ET7" t="b">
-        <v>0</v>
-      </c>
-      <c r="EU7" t="b">
-        <v>1</v>
-      </c>
-      <c r="EV7" t="b">
-        <v>0</v>
-      </c>
-      <c r="EW7" t="b">
-        <v>0</v>
-      </c>
-      <c r="EX7" t="b">
-        <v>1</v>
-      </c>
-      <c r="EY7" t="b">
-        <v>1</v>
-      </c>
-      <c r="EZ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="FA7" t="b">
-        <v>0</v>
-      </c>
-      <c r="FB7" t="b">
-        <v>0</v>
-      </c>
-      <c r="FC7" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD7" t="b">
-        <v>1</v>
-      </c>
-      <c r="FE7" t="b">
-        <v>0</v>
-      </c>
-      <c r="FF7" t="b">
-        <v>1</v>
-      </c>
-      <c r="FG7" t="b">
-        <v>0</v>
-      </c>
-      <c r="FH7" t="b">
-        <v>0</v>
-      </c>
-      <c r="FI7" t="b">
-        <v>1</v>
-      </c>
-      <c r="FJ7" t="b">
-        <v>1</v>
-      </c>
-      <c r="FK7" t="b">
-        <v>1</v>
-      </c>
-      <c r="FL7" t="b">
-        <v>0</v>
-      </c>
-      <c r="FM7" t="b">
-        <v>1</v>
-      </c>
-      <c r="FN7" t="b">
-        <v>1</v>
-      </c>
-      <c r="FO7" t="b">
-        <v>0</v>
-      </c>
-      <c r="FP7" t="b">
-        <v>1</v>
-      </c>
-      <c r="FQ7" t="b">
-        <v>1</v>
-      </c>
-      <c r="FR7" t="b">
-        <v>0</v>
-      </c>
-      <c r="FS7" t="b">
-        <v>1</v>
-      </c>
-      <c r="FT7" t="b">
-        <v>0</v>
-      </c>
-      <c r="FU7" t="b">
-        <v>0</v>
-      </c>
-      <c r="FV7" t="b">
-        <v>1</v>
-      </c>
-      <c r="FW7" t="b">
-        <v>1</v>
-      </c>
-      <c r="FX7" t="b">
-        <v>0</v>
-      </c>
-      <c r="FY7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:181" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P8" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" t="b">
-        <v>1</v>
-      </c>
-      <c r="S8" t="b">
-        <v>1</v>
-      </c>
-      <c r="T8" t="b">
-        <v>1</v>
-      </c>
-      <c r="U8" t="b">
-        <v>0</v>
-      </c>
-      <c r="V8" t="b">
-        <v>0</v>
-      </c>
-      <c r="W8" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ8" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB8" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BF8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG8" t="b">
-        <v>1</v>
-      </c>
-      <c r="BH8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BI8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BM8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BO8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BP8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BQ8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BR8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BT8" t="b">
-        <v>1</v>
-      </c>
-      <c r="BU8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BV8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BY8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ8" t="b">
-        <v>1</v>
-      </c>
-      <c r="CA8" t="b">
-        <v>0</v>
-      </c>
-      <c r="CB8" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC8" t="b">
-        <v>0</v>
-      </c>
-      <c r="CD8" t="b">
-        <v>0</v>
-      </c>
-      <c r="CE8" t="b">
-        <v>0</v>
-      </c>
-      <c r="CF8" t="b">
-        <v>0</v>
-      </c>
-      <c r="CG8" t="b">
-        <v>0</v>
-      </c>
-      <c r="CH8" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI8" t="b">
-        <v>0</v>
-      </c>
-      <c r="CJ8" t="b">
-        <v>0</v>
-      </c>
-      <c r="CK8" t="b">
-        <v>0</v>
-      </c>
-      <c r="CL8" t="b">
-        <v>0</v>
-      </c>
-      <c r="CM8" t="b">
-        <v>0</v>
-      </c>
-      <c r="CN8" t="b">
-        <v>0</v>
-      </c>
-      <c r="CO8" t="b">
-        <v>0</v>
-      </c>
-      <c r="CP8" t="b">
-        <v>0</v>
-      </c>
-      <c r="CQ8" t="b">
-        <v>0</v>
-      </c>
-      <c r="CR8" t="b">
-        <v>0</v>
-      </c>
-      <c r="CS8" t="b">
-        <v>0</v>
-      </c>
-      <c r="CT8" t="b">
-        <v>0</v>
-      </c>
-      <c r="CU8" t="b">
-        <v>0</v>
-      </c>
-      <c r="CV8" t="b">
-        <v>0</v>
-      </c>
-      <c r="CW8" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX8" t="b">
-        <v>0</v>
-      </c>
-      <c r="CY8" t="b">
-        <v>0</v>
-      </c>
-      <c r="CZ8" t="b">
-        <v>0</v>
-      </c>
-      <c r="DA8" t="b">
-        <v>0</v>
-      </c>
-      <c r="DB8" t="b">
-        <v>0</v>
-      </c>
-      <c r="DC8" t="b">
-        <v>0</v>
-      </c>
-      <c r="DD8" t="b">
-        <v>0</v>
-      </c>
-      <c r="DE8" t="b">
-        <v>0</v>
-      </c>
-      <c r="DF8" t="b">
-        <v>0</v>
-      </c>
-      <c r="DG8" t="b">
-        <v>0</v>
-      </c>
-      <c r="DH8" t="b">
-        <v>0</v>
-      </c>
-      <c r="DI8" t="b">
-        <v>0</v>
-      </c>
-      <c r="DJ8" t="b">
-        <v>0</v>
-      </c>
-      <c r="DK8" t="b">
-        <v>0</v>
-      </c>
-      <c r="DL8" t="b">
-        <v>0</v>
-      </c>
-      <c r="DM8" t="b">
-        <v>0</v>
-      </c>
-      <c r="DN8" t="b">
-        <v>0</v>
-      </c>
-      <c r="DO8" t="b">
-        <v>0</v>
-      </c>
-      <c r="DP8" t="b">
-        <v>0</v>
-      </c>
-      <c r="DQ8" t="b">
-        <v>0</v>
-      </c>
-      <c r="DR8" t="b">
-        <v>0</v>
-      </c>
-      <c r="DS8" t="b">
-        <v>0</v>
-      </c>
-      <c r="DT8" t="b">
-        <v>0</v>
-      </c>
-      <c r="DU8" t="b">
-        <v>0</v>
-      </c>
-      <c r="DV8" t="b">
-        <v>0</v>
-      </c>
-      <c r="DW8" t="b">
-        <v>0</v>
-      </c>
-      <c r="DX8" t="b">
-        <v>0</v>
-      </c>
-      <c r="DY8" t="b">
-        <v>0</v>
-      </c>
-      <c r="DZ8" t="b">
-        <v>0</v>
-      </c>
-      <c r="EA8" t="b">
-        <v>0</v>
-      </c>
-      <c r="EB8" t="b">
-        <v>0</v>
-      </c>
-      <c r="EC8" t="b">
-        <v>1</v>
-      </c>
-      <c r="ED8" t="b">
-        <v>0</v>
-      </c>
-      <c r="EE8" t="b">
-        <v>0</v>
-      </c>
-      <c r="EF8" t="b">
-        <v>0</v>
-      </c>
-      <c r="EG8" t="b">
-        <v>0</v>
-      </c>
-      <c r="EH8" t="b">
-        <v>0</v>
-      </c>
-      <c r="EI8" t="b">
-        <v>1</v>
-      </c>
-      <c r="EJ8" t="b">
-        <v>1</v>
-      </c>
-      <c r="EK8" t="b">
-        <v>0</v>
-      </c>
-      <c r="EL8" t="b">
-        <v>1</v>
-      </c>
-      <c r="EM8" t="b">
-        <v>1</v>
-      </c>
-      <c r="EN8" t="b">
-        <v>1</v>
-      </c>
-      <c r="EO8" t="b">
-        <v>0</v>
-      </c>
-      <c r="EP8" t="b">
-        <v>0</v>
-      </c>
-      <c r="EQ8" t="b">
-        <v>0</v>
-      </c>
-      <c r="ER8" t="b">
-        <v>0</v>
-      </c>
-      <c r="ES8" t="b">
-        <v>0</v>
-      </c>
-      <c r="ET8" t="b">
-        <v>1</v>
-      </c>
-      <c r="EU8" t="b">
-        <v>0</v>
-      </c>
-      <c r="EV8" t="b">
-        <v>0</v>
-      </c>
-      <c r="EW8" t="b">
-        <v>0</v>
-      </c>
-      <c r="EX8" t="b">
-        <v>1</v>
-      </c>
-      <c r="EY8" t="b">
-        <v>0</v>
-      </c>
-      <c r="EZ8" t="b">
-        <v>0</v>
-      </c>
-      <c r="FA8" t="b">
-        <v>0</v>
-      </c>
-      <c r="FB8" t="b">
-        <v>0</v>
-      </c>
-      <c r="FC8" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD8" t="b">
-        <v>1</v>
-      </c>
-      <c r="FE8" t="b">
-        <v>0</v>
-      </c>
-      <c r="FF8" t="b">
-        <v>0</v>
-      </c>
-      <c r="FG8" t="b">
-        <v>0</v>
-      </c>
-      <c r="FH8" t="b">
-        <v>0</v>
-      </c>
-      <c r="FI8" t="b">
-        <v>1</v>
-      </c>
-      <c r="FJ8" t="b">
-        <v>1</v>
-      </c>
-      <c r="FK8" t="b">
-        <v>1</v>
-      </c>
-      <c r="FL8" t="b">
-        <v>0</v>
-      </c>
-      <c r="FM8" t="b">
-        <v>0</v>
-      </c>
-      <c r="FN8" t="b">
-        <v>0</v>
-      </c>
-      <c r="FO8" t="b">
-        <v>0</v>
-      </c>
-      <c r="FP8" t="b">
-        <v>1</v>
-      </c>
-      <c r="FQ8" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR8" t="b">
-        <v>0</v>
-      </c>
-      <c r="FS8" t="b">
-        <v>0</v>
-      </c>
-      <c r="FT8" t="b">
-        <v>0</v>
-      </c>
-      <c r="FU8" t="b">
-        <v>0</v>
-      </c>
-      <c r="FV8" t="b">
-        <v>1</v>
-      </c>
-      <c r="FW8" t="b">
-        <v>0</v>
-      </c>
-      <c r="FX8" t="b">
-        <v>0</v>
-      </c>
-      <c r="FY8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:181" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="b">
-        <v>1</v>
-      </c>
-      <c r="R9" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9" t="b">
-        <v>1</v>
-      </c>
-      <c r="T9" t="b">
-        <v>0</v>
-      </c>
-      <c r="U9" t="b">
-        <v>0</v>
-      </c>
-      <c r="V9" t="b">
-        <v>0</v>
-      </c>
-      <c r="W9" t="b">
-        <v>0</v>
-      </c>
-      <c r="X9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD9" t="b">
-        <v>1</v>
-      </c>
-      <c r="BE9" t="b">
-        <v>1</v>
-      </c>
-      <c r="BF9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BI9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BM9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BO9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BP9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BQ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BR9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BT9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BU9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BV9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BY9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ9" t="b">
-        <v>1</v>
-      </c>
-      <c r="CA9" t="b">
-        <v>0</v>
-      </c>
-      <c r="CB9" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC9" t="b">
-        <v>0</v>
-      </c>
-      <c r="CD9" t="b">
-        <v>0</v>
-      </c>
-      <c r="CE9" t="b">
-        <v>0</v>
-      </c>
-      <c r="CF9" t="b">
-        <v>0</v>
-      </c>
-      <c r="CG9" t="b">
-        <v>0</v>
-      </c>
-      <c r="CH9" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI9" t="b">
-        <v>0</v>
-      </c>
-      <c r="CJ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="CK9" t="b">
-        <v>0</v>
-      </c>
-      <c r="CL9" t="b">
-        <v>0</v>
-      </c>
-      <c r="CM9" t="b">
-        <v>0</v>
-      </c>
-      <c r="CN9" t="b">
-        <v>0</v>
-      </c>
-      <c r="CO9" t="b">
-        <v>0</v>
-      </c>
-      <c r="CP9" t="b">
-        <v>0</v>
-      </c>
-      <c r="CQ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="CR9" t="b">
-        <v>0</v>
-      </c>
-      <c r="CS9" t="b">
-        <v>0</v>
-      </c>
-      <c r="CT9" t="b">
-        <v>0</v>
-      </c>
-      <c r="CU9" t="b">
-        <v>0</v>
-      </c>
-      <c r="CV9" t="b">
-        <v>0</v>
-      </c>
-      <c r="CW9" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX9" t="b">
-        <v>0</v>
-      </c>
-      <c r="CY9" t="b">
-        <v>0</v>
-      </c>
-      <c r="CZ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="DA9" t="b">
-        <v>0</v>
-      </c>
-      <c r="DB9" t="b">
-        <v>0</v>
-      </c>
-      <c r="DC9" t="b">
-        <v>0</v>
-      </c>
-      <c r="DD9" t="b">
-        <v>0</v>
-      </c>
-      <c r="DE9" t="b">
-        <v>0</v>
-      </c>
-      <c r="DF9" t="b">
-        <v>0</v>
-      </c>
-      <c r="DG9" t="b">
-        <v>0</v>
-      </c>
-      <c r="DH9" t="b">
-        <v>0</v>
-      </c>
-      <c r="DI9" t="b">
-        <v>0</v>
-      </c>
-      <c r="DJ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="DK9" t="b">
-        <v>0</v>
-      </c>
-      <c r="DL9" t="b">
-        <v>0</v>
-      </c>
-      <c r="DM9" t="b">
-        <v>0</v>
-      </c>
-      <c r="DN9" t="b">
-        <v>0</v>
-      </c>
-      <c r="DO9" t="b">
-        <v>0</v>
-      </c>
-      <c r="DP9" t="b">
-        <v>0</v>
-      </c>
-      <c r="DQ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="DR9" t="b">
-        <v>0</v>
-      </c>
-      <c r="DS9" t="b">
-        <v>0</v>
-      </c>
-      <c r="DT9" t="b">
-        <v>0</v>
-      </c>
-      <c r="DU9" t="b">
-        <v>0</v>
-      </c>
-      <c r="DV9" t="b">
-        <v>0</v>
-      </c>
-      <c r="DW9" t="b">
-        <v>0</v>
-      </c>
-      <c r="DX9" t="b">
-        <v>0</v>
-      </c>
-      <c r="DY9" t="b">
-        <v>0</v>
-      </c>
-      <c r="DZ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="EA9" t="b">
-        <v>0</v>
-      </c>
-      <c r="EB9" t="b">
-        <v>1</v>
-      </c>
-      <c r="EC9" t="b">
-        <v>0</v>
-      </c>
-      <c r="ED9" t="b">
-        <v>0</v>
-      </c>
-      <c r="EE9" t="b">
-        <v>0</v>
-      </c>
-      <c r="EF9" t="b">
-        <v>1</v>
-      </c>
-      <c r="EG9" t="b">
-        <v>0</v>
-      </c>
-      <c r="EH9" t="b">
-        <v>0</v>
-      </c>
-      <c r="EI9" t="b">
-        <v>1</v>
-      </c>
-      <c r="EJ9" t="b">
-        <v>1</v>
-      </c>
-      <c r="EK9" t="b">
-        <v>1</v>
-      </c>
-      <c r="EL9" t="b">
-        <v>0</v>
-      </c>
-      <c r="EM9" t="b">
-        <v>1</v>
-      </c>
-      <c r="EN9" t="b">
-        <v>0</v>
-      </c>
-      <c r="EO9" t="b">
-        <v>0</v>
-      </c>
-      <c r="EP9" t="b">
-        <v>0</v>
-      </c>
-      <c r="EQ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="ER9" t="b">
-        <v>0</v>
-      </c>
-      <c r="ES9" t="b">
-        <v>1</v>
-      </c>
-      <c r="ET9" t="b">
-        <v>0</v>
-      </c>
-      <c r="EU9" t="b">
-        <v>0</v>
-      </c>
-      <c r="EV9" t="b">
-        <v>0</v>
-      </c>
-      <c r="EW9" t="b">
-        <v>0</v>
-      </c>
-      <c r="EX9" t="b">
-        <v>1</v>
-      </c>
-      <c r="EY9" t="b">
-        <v>0</v>
-      </c>
-      <c r="EZ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="FA9" t="b">
-        <v>0</v>
-      </c>
-      <c r="FB9" t="b">
-        <v>0</v>
-      </c>
-      <c r="FC9" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD9" t="b">
-        <v>0</v>
-      </c>
-      <c r="FE9" t="b">
-        <v>0</v>
-      </c>
-      <c r="FF9" t="b">
-        <v>0</v>
-      </c>
-      <c r="FG9" t="b">
-        <v>0</v>
-      </c>
-      <c r="FH9" t="b">
-        <v>0</v>
-      </c>
-      <c r="FI9" t="b">
-        <v>1</v>
-      </c>
-      <c r="FJ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="FK9" t="b">
-        <v>0</v>
-      </c>
-      <c r="FL9" t="b">
-        <v>0</v>
-      </c>
-      <c r="FM9" t="b">
-        <v>1</v>
-      </c>
-      <c r="FN9" t="b">
-        <v>1</v>
-      </c>
-      <c r="FO9" t="b">
-        <v>0</v>
-      </c>
-      <c r="FP9" t="b">
-        <v>0</v>
-      </c>
-      <c r="FQ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR9" t="b">
-        <v>0</v>
-      </c>
-      <c r="FS9" t="b">
-        <v>0</v>
-      </c>
-      <c r="FT9" t="b">
-        <v>0</v>
-      </c>
-      <c r="FU9" t="b">
-        <v>0</v>
-      </c>
-      <c r="FV9" t="b">
-        <v>0</v>
-      </c>
-      <c r="FW9" t="b">
-        <v>0</v>
-      </c>
-      <c r="FX9" t="b">
-        <v>0</v>
-      </c>
-      <c r="FY9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:181" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R10" t="b">
-        <v>1</v>
-      </c>
-      <c r="S10" t="b">
-        <v>1</v>
-      </c>
-      <c r="T10" t="b">
-        <v>0</v>
-      </c>
-      <c r="U10" t="b">
-        <v>0</v>
-      </c>
-      <c r="V10" t="b">
-        <v>0</v>
-      </c>
-      <c r="W10" t="b">
-        <v>0</v>
-      </c>
-      <c r="X10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AZ10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BC10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BF10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BI10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BM10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BO10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BP10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BQ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BR10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BT10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BU10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BV10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BY10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BZ10" t="b">
-        <v>1</v>
-      </c>
-      <c r="CA10" t="b">
-        <v>0</v>
-      </c>
-      <c r="CB10" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC10" t="b">
-        <v>0</v>
-      </c>
-      <c r="CD10" t="b">
-        <v>0</v>
-      </c>
-      <c r="CE10" t="b">
-        <v>0</v>
-      </c>
-      <c r="CF10" t="b">
-        <v>0</v>
-      </c>
-      <c r="CG10" t="b">
-        <v>0</v>
-      </c>
-      <c r="CH10" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI10" t="b">
-        <v>0</v>
-      </c>
-      <c r="CJ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="CK10" t="b">
-        <v>0</v>
-      </c>
-      <c r="CL10" t="b">
-        <v>0</v>
-      </c>
-      <c r="CM10" t="b">
-        <v>0</v>
-      </c>
-      <c r="CN10" t="b">
-        <v>0</v>
-      </c>
-      <c r="CO10" t="b">
-        <v>0</v>
-      </c>
-      <c r="CP10" t="b">
-        <v>0</v>
-      </c>
-      <c r="CQ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="CR10" t="b">
-        <v>0</v>
-      </c>
-      <c r="CS10" t="b">
-        <v>0</v>
-      </c>
-      <c r="CT10" t="b">
-        <v>0</v>
-      </c>
-      <c r="CU10" t="b">
-        <v>0</v>
-      </c>
-      <c r="CV10" t="b">
-        <v>0</v>
-      </c>
-      <c r="CW10" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX10" t="b">
-        <v>0</v>
-      </c>
-      <c r="CY10" t="b">
-        <v>0</v>
-      </c>
-      <c r="CZ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="DA10" t="b">
-        <v>0</v>
-      </c>
-      <c r="DB10" t="b">
-        <v>0</v>
-      </c>
-      <c r="DC10" t="b">
-        <v>0</v>
-      </c>
-      <c r="DD10" t="b">
-        <v>0</v>
-      </c>
-      <c r="DE10" t="b">
-        <v>0</v>
-      </c>
-      <c r="DF10" t="b">
-        <v>0</v>
-      </c>
-      <c r="DG10" t="b">
-        <v>0</v>
-      </c>
-      <c r="DH10" t="b">
-        <v>0</v>
-      </c>
-      <c r="DI10" t="b">
-        <v>0</v>
-      </c>
-      <c r="DJ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="DK10" t="b">
-        <v>0</v>
-      </c>
-      <c r="DL10" t="b">
-        <v>0</v>
-      </c>
-      <c r="DM10" t="b">
-        <v>0</v>
-      </c>
-      <c r="DN10" t="b">
-        <v>0</v>
-      </c>
-      <c r="DO10" t="b">
-        <v>0</v>
-      </c>
-      <c r="DP10" t="b">
-        <v>0</v>
-      </c>
-      <c r="DQ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="DR10" t="b">
-        <v>0</v>
-      </c>
-      <c r="DS10" t="b">
-        <v>0</v>
-      </c>
-      <c r="DT10" t="b">
-        <v>0</v>
-      </c>
-      <c r="DU10" t="b">
-        <v>0</v>
-      </c>
-      <c r="DV10" t="b">
-        <v>0</v>
-      </c>
-      <c r="DW10" t="b">
-        <v>0</v>
-      </c>
-      <c r="DX10" t="b">
-        <v>0</v>
-      </c>
-      <c r="DY10" t="b">
-        <v>0</v>
-      </c>
-      <c r="DZ10" t="b">
-        <v>1</v>
-      </c>
-      <c r="EA10" t="b">
-        <v>0</v>
-      </c>
-      <c r="EB10" t="b">
-        <v>0</v>
-      </c>
-      <c r="EC10" t="b">
-        <v>1</v>
-      </c>
-      <c r="ED10" t="b">
-        <v>0</v>
-      </c>
-      <c r="EE10" t="b">
-        <v>0</v>
-      </c>
-      <c r="EF10" t="b">
-        <v>1</v>
-      </c>
-      <c r="EG10" t="b">
-        <v>1</v>
-      </c>
-      <c r="EH10" t="b">
-        <v>0</v>
-      </c>
-      <c r="EI10" t="b">
-        <v>0</v>
-      </c>
-      <c r="EJ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="EK10" t="b">
-        <v>0</v>
-      </c>
-      <c r="EL10" t="b">
-        <v>1</v>
-      </c>
-      <c r="EM10" t="b">
-        <v>1</v>
-      </c>
-      <c r="EN10" t="b">
-        <v>0</v>
-      </c>
-      <c r="EO10" t="b">
-        <v>0</v>
-      </c>
-      <c r="EP10" t="b">
-        <v>0</v>
-      </c>
-      <c r="EQ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="ER10" t="b">
-        <v>0</v>
-      </c>
-      <c r="ES10" t="b">
-        <v>0</v>
-      </c>
-      <c r="ET10" t="b">
-        <v>0</v>
-      </c>
-      <c r="EU10" t="b">
-        <v>0</v>
-      </c>
-      <c r="EV10" t="b">
-        <v>0</v>
-      </c>
-      <c r="EW10" t="b">
-        <v>0</v>
-      </c>
-      <c r="EX10" t="b">
-        <v>1</v>
-      </c>
-      <c r="EY10" t="b">
-        <v>0</v>
-      </c>
-      <c r="EZ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="FA10" t="b">
-        <v>0</v>
-      </c>
-      <c r="FB10" t="b">
-        <v>0</v>
-      </c>
-      <c r="FC10" t="b">
-        <v>1</v>
-      </c>
-      <c r="FD10" t="b">
-        <v>1</v>
-      </c>
-      <c r="FE10" t="b">
-        <v>1</v>
-      </c>
-      <c r="FF10" t="b">
-        <v>0</v>
-      </c>
-      <c r="FG10" t="b">
-        <v>1</v>
-      </c>
-      <c r="FH10" t="b">
-        <v>0</v>
-      </c>
-      <c r="FI10" t="b">
-        <v>1</v>
-      </c>
-      <c r="FJ10" t="b">
-        <v>1</v>
-      </c>
-      <c r="FK10" t="b">
-        <v>1</v>
-      </c>
-      <c r="FL10" t="b">
-        <v>0</v>
-      </c>
-      <c r="FM10" t="b">
-        <v>0</v>
-      </c>
-      <c r="FN10" t="b">
-        <v>0</v>
-      </c>
-      <c r="FO10" t="b">
-        <v>0</v>
-      </c>
-      <c r="FP10" t="b">
-        <v>0</v>
-      </c>
-      <c r="FQ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR10" t="b">
-        <v>0</v>
-      </c>
-      <c r="FS10" t="b">
-        <v>0</v>
-      </c>
-      <c r="FT10" t="b">
-        <v>0</v>
-      </c>
-      <c r="FU10" t="b">
-        <v>0</v>
-      </c>
-      <c r="FV10" t="b">
-        <v>1</v>
-      </c>
-      <c r="FW10" t="b">
-        <v>0</v>
-      </c>
-      <c r="FX10" t="b">
-        <v>1</v>
-      </c>
-      <c r="FY10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:181" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>190</v>
-      </c>
-      <c r="B11" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" t="b">
-        <v>1</v>
-      </c>
-      <c r="N11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O11" t="b">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="b">
-        <v>0</v>
-      </c>
-      <c r="R11" t="b">
-        <v>0</v>
-      </c>
-      <c r="S11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T11" t="b">
-        <v>1</v>
-      </c>
-      <c r="U11" t="b">
-        <v>0</v>
-      </c>
-      <c r="V11" t="b">
-        <v>0</v>
-      </c>
-      <c r="W11" t="b">
-        <v>1</v>
-      </c>
-      <c r="X11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BD11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BF11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BG11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BI11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BL11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BM11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BO11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BQ11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BR11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS11" t="b">
-        <v>1</v>
-      </c>
-      <c r="BT11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BU11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BV11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BW11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BY11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BZ11" t="b">
-        <v>0</v>
-      </c>
-      <c r="CA11" t="b">
-        <v>0</v>
-      </c>
-      <c r="CB11" t="b">
-        <v>0</v>
-      </c>
-      <c r="CC11" t="b">
-        <v>0</v>
-      </c>
-      <c r="CD11" t="b">
-        <v>0</v>
-      </c>
-      <c r="CE11" t="b">
-        <v>0</v>
-      </c>
-      <c r="CF11" t="b">
-        <v>0</v>
-      </c>
-      <c r="CG11" t="b">
-        <v>0</v>
-      </c>
-      <c r="CH11" t="b">
-        <v>0</v>
-      </c>
-      <c r="CI11" t="b">
-        <v>0</v>
-      </c>
-      <c r="CJ11" t="b">
-        <v>0</v>
-      </c>
-      <c r="CK11" t="b">
-        <v>0</v>
-      </c>
-      <c r="CL11" t="b">
-        <v>0</v>
-      </c>
-      <c r="CM11" t="b">
-        <v>0</v>
-      </c>
-      <c r="CN11" t="b">
-        <v>0</v>
-      </c>
-      <c r="CO11" t="b">
-        <v>0</v>
-      </c>
-      <c r="CP11" t="b">
-        <v>0</v>
-      </c>
-      <c r="CQ11" t="b">
-        <v>0</v>
-      </c>
-      <c r="CR11" t="b">
-        <v>0</v>
-      </c>
-      <c r="CS11" t="b">
-        <v>0</v>
-      </c>
-      <c r="CT11" t="b">
-        <v>0</v>
-      </c>
-      <c r="CU11" t="b">
-        <v>0</v>
-      </c>
-      <c r="CV11" t="b">
-        <v>0</v>
-      </c>
-      <c r="CW11" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX11" t="b">
-        <v>0</v>
-      </c>
-      <c r="CY11" t="b">
-        <v>0</v>
-      </c>
-      <c r="CZ11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DA11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DB11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DC11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DD11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DE11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DF11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DG11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DH11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DI11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DJ11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DK11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DL11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DM11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DN11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DO11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DP11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DQ11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DR11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DS11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DT11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DU11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DV11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DW11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DX11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DY11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DZ11" t="b">
-        <v>0</v>
-      </c>
-      <c r="EA11" t="b">
-        <v>0</v>
-      </c>
-      <c r="EB11" t="b">
-        <v>0</v>
-      </c>
-      <c r="EC11" t="b">
-        <v>0</v>
-      </c>
-      <c r="ED11" t="b">
-        <v>0</v>
-      </c>
-      <c r="EE11" t="b">
-        <v>0</v>
-      </c>
-      <c r="EF11" t="b">
-        <v>0</v>
-      </c>
-      <c r="EG11" t="b">
-        <v>1</v>
-      </c>
-      <c r="EH11" t="b">
-        <v>1</v>
-      </c>
-      <c r="EI11" t="b">
-        <v>0</v>
-      </c>
-      <c r="EJ11" t="b">
-        <v>0</v>
-      </c>
-      <c r="EK11" t="b">
-        <v>0</v>
-      </c>
-      <c r="EL11" t="b">
-        <v>0</v>
-      </c>
-      <c r="EM11" t="b">
-        <v>0</v>
-      </c>
-      <c r="EN11" t="b">
-        <v>1</v>
-      </c>
-      <c r="EO11" t="b">
-        <v>1</v>
-      </c>
-      <c r="EP11" t="b">
-        <v>1</v>
-      </c>
-      <c r="EQ11" t="b">
-        <v>1</v>
-      </c>
-      <c r="ER11" t="b">
-        <v>0</v>
-      </c>
-      <c r="ES11" t="b">
-        <v>0</v>
-      </c>
-      <c r="ET11" t="b">
-        <v>0</v>
-      </c>
-      <c r="EU11" t="b">
-        <v>0</v>
-      </c>
-      <c r="EV11" t="b">
-        <v>0</v>
-      </c>
-      <c r="EW11" t="b">
-        <v>0</v>
-      </c>
-      <c r="EX11" t="b">
-        <v>1</v>
-      </c>
-      <c r="EY11" t="b">
-        <v>0</v>
-      </c>
-      <c r="EZ11" t="b">
-        <v>1</v>
-      </c>
-      <c r="FA11" t="b">
-        <v>1</v>
-      </c>
-      <c r="FB11" t="b">
-        <v>1</v>
-      </c>
-      <c r="FC11" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD11" t="b">
-        <v>0</v>
-      </c>
-      <c r="FE11" t="b">
-        <v>0</v>
-      </c>
-      <c r="FF11" t="b">
-        <v>0</v>
-      </c>
-      <c r="FG11" t="b">
-        <v>0</v>
-      </c>
-      <c r="FH11" t="b">
-        <v>0</v>
-      </c>
-      <c r="FI11" t="b">
-        <v>0</v>
-      </c>
-      <c r="FJ11" t="b">
-        <v>0</v>
-      </c>
-      <c r="FK11" t="b">
-        <v>0</v>
-      </c>
-      <c r="FL11" t="b">
-        <v>1</v>
-      </c>
-      <c r="FM11" t="b">
-        <v>0</v>
-      </c>
-      <c r="FN11" t="b">
-        <v>0</v>
-      </c>
-      <c r="FO11" t="b">
-        <v>1</v>
-      </c>
-      <c r="FP11" t="b">
-        <v>0</v>
-      </c>
-      <c r="FQ11" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR11" t="b">
-        <v>1</v>
-      </c>
-      <c r="FS11" t="b">
-        <v>0</v>
-      </c>
-      <c r="FT11" t="b">
-        <v>1</v>
-      </c>
-      <c r="FU11" t="b">
-        <v>1</v>
-      </c>
-      <c r="FV11" t="b">
-        <v>0</v>
-      </c>
-      <c r="FW11" t="b">
-        <v>0</v>
-      </c>
-      <c r="FX11" t="b">
-        <v>0</v>
-      </c>
-      <c r="FY11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G162" sqref="G162"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7508,42 +1484,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -7578,7 +1554,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
@@ -7613,7 +1589,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -7648,7 +1624,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -7683,7 +1659,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -7718,7 +1694,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -7753,7 +1729,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
@@ -7788,7 +1764,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
@@ -7823,7 +1799,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -7858,7 +1834,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -7893,7 +1869,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -7928,7 +1904,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
@@ -7963,7 +1939,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -7998,7 +1974,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -8033,7 +2009,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -8068,7 +2044,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -8103,7 +2079,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -8138,7 +2114,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -8173,7 +2149,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -8208,7 +2184,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -8243,7 +2219,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -8278,7 +2254,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -8313,7 +2289,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -8348,7 +2324,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -8383,7 +2359,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -8418,7 +2394,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -8453,7 +2429,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -8488,7 +2464,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -8523,7 +2499,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -8558,7 +2534,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -8593,7 +2569,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -8628,7 +2604,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -8663,7 +2639,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -8698,7 +2674,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -8733,7 +2709,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
@@ -8768,7 +2744,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="b">
         <v>0</v>
@@ -8803,7 +2779,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="b">
         <v>0</v>
@@ -8838,7 +2814,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="b">
         <v>0</v>
@@ -8873,7 +2849,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="b">
         <v>1</v>
@@ -8908,7 +2884,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="b">
         <v>0</v>
@@ -8943,7 +2919,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="b">
         <v>0</v>
@@ -8978,7 +2954,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="b">
         <v>0</v>
@@ -9013,7 +2989,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="b">
         <v>0</v>
@@ -9048,7 +3024,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="b">
         <v>1</v>
@@ -9083,7 +3059,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="b">
         <v>0</v>
@@ -9118,7 +3094,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="b">
         <v>0</v>
@@ -9153,7 +3129,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="b">
         <v>0</v>
@@ -9188,7 +3164,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="b">
         <v>0</v>
@@ -9223,7 +3199,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="b">
         <v>0</v>
@@ -9258,7 +3234,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="b">
         <v>0</v>
@@ -9293,7 +3269,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="b">
         <v>0</v>
@@ -9328,7 +3304,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="b">
         <v>0</v>
@@ -9363,7 +3339,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="b">
         <v>1</v>
@@ -9398,7 +3374,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="b">
         <v>0</v>
@@ -9433,7 +3409,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="b">
         <v>0</v>
@@ -9468,7 +3444,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="b">
         <v>0</v>
@@ -9503,7 +3479,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="b">
         <v>0</v>
@@ -9538,7 +3514,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="b">
         <v>0</v>
@@ -9573,7 +3549,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="b">
         <v>0</v>
@@ -9608,7 +3584,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="b">
         <v>0</v>
@@ -9643,7 +3619,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="b">
         <v>0</v>
@@ -9678,7 +3654,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="b">
         <v>0</v>
@@ -9713,7 +3689,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="b">
         <v>0</v>
@@ -9748,7 +3724,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" t="b">
         <v>0</v>
@@ -9783,7 +3759,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" t="b">
         <v>0</v>
@@ -9818,7 +3794,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="b">
         <v>0</v>
@@ -9853,7 +3829,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" t="b">
         <v>0</v>
@@ -9888,7 +3864,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" t="b">
         <v>0</v>
@@ -9923,7 +3899,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" t="b">
         <v>1</v>
@@ -9958,7 +3934,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="b">
         <v>0</v>
@@ -9993,7 +3969,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" t="b">
         <v>0</v>
@@ -10028,7 +4004,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" t="b">
         <v>0</v>
@@ -10063,7 +4039,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" t="b">
         <v>0</v>
@@ -10098,7 +4074,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" t="b">
         <v>0</v>
@@ -10133,7 +4109,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" t="b">
         <v>0</v>
@@ -10168,7 +4144,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" t="b">
         <v>0</v>
@@ -10203,7 +4179,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" t="b">
         <v>1</v>
@@ -10238,7 +4214,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" t="b">
         <v>0</v>
@@ -10273,7 +4249,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" t="b">
         <v>0</v>
@@ -10308,7 +4284,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" t="b">
         <v>0</v>
@@ -10343,7 +4319,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" t="b">
         <v>0</v>
@@ -10378,7 +4354,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" t="b">
         <v>0</v>
@@ -10413,7 +4389,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" t="b">
         <v>0</v>
@@ -10448,7 +4424,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" t="b">
         <v>0</v>
@@ -10483,7 +4459,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" t="b">
         <v>0</v>
@@ -10518,7 +4494,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" t="b">
         <v>0</v>
@@ -10553,7 +4529,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" t="b">
         <v>0</v>
@@ -10588,7 +4564,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" t="b">
         <v>0</v>
@@ -10623,7 +4599,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" t="b">
         <v>0</v>
@@ -10658,7 +4634,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" t="b">
         <v>0</v>
@@ -10693,7 +4669,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" t="b">
         <v>0</v>
@@ -10728,7 +4704,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" t="b">
         <v>0</v>
@@ -10763,7 +4739,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" t="b">
         <v>0</v>
@@ -10798,7 +4774,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" t="b">
         <v>0</v>
@@ -10833,7 +4809,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" t="b">
         <v>0</v>
@@ -10868,7 +4844,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" t="b">
         <v>0</v>
@@ -10903,7 +4879,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" t="b">
         <v>0</v>
@@ -10938,7 +4914,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" t="b">
         <v>0</v>
@@ -10973,7 +4949,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" t="b">
         <v>0</v>
@@ -11008,7 +4984,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" t="b">
         <v>0</v>
@@ -11043,7 +5019,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" t="b">
         <v>0</v>
@@ -11078,7 +5054,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" t="b">
         <v>0</v>
@@ -11113,7 +5089,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" t="b">
         <v>0</v>
@@ -11148,7 +5124,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" t="b">
         <v>0</v>
@@ -11183,7 +5159,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" t="b">
         <v>0</v>
@@ -11218,7 +5194,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" t="b">
         <v>0</v>
@@ -11253,7 +5229,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" t="b">
         <v>0</v>
@@ -11288,7 +5264,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" t="b">
         <v>0</v>
@@ -11323,7 +5299,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" t="b">
         <v>0</v>
@@ -11358,7 +5334,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" t="b">
         <v>0</v>
@@ -11393,7 +5369,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" t="b">
         <v>0</v>
@@ -11428,7 +5404,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" t="b">
         <v>0</v>
@@ -11463,7 +5439,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" t="b">
         <v>0</v>
@@ -11498,7 +5474,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" t="b">
         <v>0</v>
@@ -11533,7 +5509,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" t="b">
         <v>0</v>
@@ -11568,7 +5544,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" t="b">
         <v>0</v>
@@ -11603,7 +5579,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" t="b">
         <v>0</v>
@@ -11638,7 +5614,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" t="b">
         <v>0</v>
@@ -11673,7 +5649,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" t="b">
         <v>0</v>
@@ -11708,7 +5684,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" t="b">
         <v>0</v>
@@ -11743,7 +5719,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" t="b">
         <v>0</v>
@@ -11778,7 +5754,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" t="b">
         <v>0</v>
@@ -11813,7 +5789,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" t="b">
         <v>0</v>
@@ -11848,7 +5824,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" t="b">
         <v>0</v>
@@ -11883,7 +5859,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" t="b">
         <v>0</v>
@@ -11918,7 +5894,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" t="b">
         <v>0</v>
@@ -11953,7 +5929,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" t="b">
         <v>0</v>
@@ -11988,7 +5964,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" t="b">
         <v>0</v>
@@ -12023,7 +5999,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" t="b">
         <v>0</v>
@@ -12058,7 +6034,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" t="b">
         <v>0</v>
@@ -12093,7 +6069,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" t="b">
         <v>0</v>
@@ -12128,7 +6104,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" t="b">
         <v>0</v>
@@ -12163,7 +6139,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" t="b">
         <v>0</v>
@@ -12198,7 +6174,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" t="b">
         <v>0</v>
@@ -12233,7 +6209,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" t="b">
         <v>0</v>
@@ -12268,7 +6244,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" t="b">
         <v>0</v>
@@ -12303,7 +6279,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" t="b">
         <v>0</v>
@@ -12338,7 +6314,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" t="b">
         <v>0</v>
@@ -12373,7 +6349,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" t="b">
         <v>1</v>
@@ -12408,7 +6384,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" t="b">
         <v>1</v>
@@ -12443,7 +6419,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" t="b">
         <v>0</v>
@@ -12478,7 +6454,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" t="b">
         <v>0</v>
@@ -12513,7 +6489,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" t="b">
         <v>0</v>
@@ -12548,7 +6524,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" t="b">
         <v>0</v>
@@ -12583,7 +6559,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" t="b">
         <v>0</v>
@@ -12618,7 +6594,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" t="b">
         <v>0</v>
@@ -12653,7 +6629,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" t="b">
         <v>0</v>
@@ -12688,7 +6664,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" t="b">
         <v>0</v>
@@ -12723,7 +6699,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" t="b">
         <v>0</v>
@@ -12758,7 +6734,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" t="b">
         <v>0</v>
@@ -12793,7 +6769,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" t="b">
         <v>0</v>
@@ -12828,7 +6804,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" t="b">
         <v>0</v>
@@ -12863,7 +6839,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" t="b">
         <v>0</v>
@@ -12898,7 +6874,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" t="b">
         <v>0</v>
@@ -12933,7 +6909,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" t="b">
         <v>0</v>
@@ -12968,7 +6944,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" t="b">
         <v>0</v>
@@ -13003,7 +6979,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" t="b">
         <v>0</v>
@@ -13038,7 +7014,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" t="b">
         <v>1</v>
@@ -13073,7 +7049,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" t="b">
         <v>1</v>
@@ -13108,7 +7084,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" t="b">
         <v>0</v>
@@ -13143,7 +7119,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" t="b">
         <v>0</v>
@@ -13178,7 +7154,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" t="b">
         <v>0</v>
@@ -13213,7 +7189,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" t="b">
         <v>0</v>
@@ -13248,7 +7224,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" t="b">
         <v>0</v>
@@ -13283,7 +7259,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" t="b">
         <v>0</v>
@@ -13318,7 +7294,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" t="b">
         <v>1</v>
@@ -13353,7 +7329,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" t="b">
         <v>0</v>
@@ -13388,7 +7364,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" t="b">
         <v>0</v>
@@ -13423,7 +7399,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" t="b">
         <v>0</v>
@@ -13458,7 +7434,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" t="b">
         <v>0</v>
@@ -13493,7 +7469,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" t="b">
         <v>0</v>
@@ -13528,7 +7504,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" t="b">
         <v>0</v>
@@ -13563,7 +7539,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" t="b">
         <v>0</v>
@@ -13598,7 +7574,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" t="b">
         <v>0</v>
@@ -13633,7 +7609,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" t="b">
         <v>1</v>
@@ -13668,7 +7644,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" t="b">
         <v>0</v>
@@ -13703,7 +7679,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" t="b">
         <v>0</v>
@@ -13738,7 +7714,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" t="b">
         <v>0</v>
@@ -13773,7 +7749,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" t="b">
         <v>0</v>
@@ -13808,7 +7784,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" t="b">
         <v>1</v>
@@ -13843,10 +7819,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:K181">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
